--- a/example_data/EPA/label_corrected/083100-00057-20171115_2018-12-08_185933.xlsx
+++ b/example_data/EPA/label_corrected/083100-00057-20171115_2018-12-08_185933.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Env warning - species</t>
+          <t>env warning - species</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -4795,7 +4795,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
@@ -4858,7 +4858,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
